--- a/REVER_DailyTracker_20200702.xlsx
+++ b/REVER_DailyTracker_20200702.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C0CFB5-4245-4A98-8ED0-F8D6BB8EF76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -26,8 +20,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -107,12 +101,27 @@
   </si>
   <si>
     <t xml:space="preserve">original DB Scripts and insert datas, </t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>To show the payment details</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>KUROGANEYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -307,7 +316,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -417,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -611,29 +620,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -657,7 +666,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -727,22 +736,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -838,22 +847,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -963,22 +972,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1004,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1025,7 +1034,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1098,22 +1107,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1140,21 +1149,45 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44014</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44014</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1209,22 +1242,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1320,22 +1353,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1361,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1432,22 +1465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1543,22 +1576,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1681,22 +1714,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1792,22 +1825,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200702.xlsx
+++ b/REVER_DailyTracker_20200702.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13963460-C683-401E-9351-0CC7DB0B8F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -16,20 +22,25 @@
     <sheet name="Prabu" sheetId="11" r:id="rId7"/>
     <sheet name="Ram" sheetId="12" r:id="rId8"/>
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
-    <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
-    <sheet name="Mathes" sheetId="13" r:id="rId11"/>
+    <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -61,71 +72,216 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Website changes, B2C app -took  latest screens and icons</t>
-  </si>
-  <si>
-    <t>Sonia_IndiaLab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (MrMax_Wrn)</t>
-  </si>
-  <si>
-    <t>Form01, Form02, Form03, degugging and script execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (MrMax_Wrn), (MrMax_Mtr) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">original DB Scripts and insert datas, </t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>To show the payment details</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>KUROGANEYA</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>No data found has been implemented if no records found and etc.
+Attended in RPASale_dev deployeement task</t>
+  </si>
+  <si>
+    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
+DRS was done,
+GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+  </si>
+  <si>
+    <t>Jiffy_to_selenium</t>
+  </si>
+  <si>
+    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
+whereas the conversion of warranty is WIP</t>
+  </si>
+  <si>
+    <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t>RPA Customization</t>
+  </si>
+  <si>
+    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
+  </si>
+  <si>
+    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
+  </si>
+  <si>
+    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
+Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Warranty CSV file is having uploading issue.</t>
+  </si>
+  <si>
+    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
+  </si>
+  <si>
+    <t>1. Fine tuning with DRS, GRS and GRD are done.
+2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
+3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
+4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
+  </si>
+  <si>
+    <t>Tested for all services dynamically for DRS, GRS and GRD are done, In GRDetails a file moving issue after uploading.</t>
+  </si>
+  <si>
+    <t>POC Task tested and validated for downloading, uploading and for no data found with email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. POC Tasks for all centers has been developed  to download and upload
+2. GRS and GRDetails tasks are completed.
+3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
+</t>
+  </si>
+  <si>
+    <t>1.POC tasks tested for all centeres excluding SSC10 individually at new bot
+2. Anchor element not found at JIFFY for DRS and Warranty daily tasks has been solved and it is running smoothly to download and
+upload.</t>
+  </si>
+  <si>
+    <t>POC Tasks are completed and tested till SSC6 and are going smooth for download and uploaded for rpa customization tasks,
+POC Taks are placed at scheduler
+Also developed code to convert purchase summary xls to csv file and uploaded successful.</t>
+  </si>
+  <si>
+    <t>Invalid data Issue during upload at SSC10 of Warranty task has been solved and updated script file also shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Dowload and upload for POC task has been tested from SSC1 to SSC10 exclusing SSC5 and SSC9 and going smooth and 
+placed in scheduler.(newbot)</t>
+  </si>
+  <si>
+    <t>Hayaai-Website</t>
+  </si>
+  <si>
+    <t>Learning and reviewing the Hayaai-Website</t>
+  </si>
+  <si>
+    <t>Learning and reviewing the Hayaai-Website in Laravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Supporting to RPA customization for Purchase details task of xls to csv conversion and uploading the same at MVS.
+2. Customizing the Monthly OtherSales task is in Progress.</t>
+  </si>
+  <si>
+    <t>1. Supported to laravel installation for web design</t>
+  </si>
+  <si>
+    <t>2. Customizing the Monthly Otherssales task is in Progress ( upto fetching data from the extended warranty is over,
+3. Whereas With PO task and Without PO task are pending and it is connected task of OtherSales</t>
+  </si>
+  <si>
+    <t>1. With PO task and Without PO task are done and it is connected task of OtherSales
+2.OtherSales tasks are completed for SSC1, whereas it has to tested for all SSC  as data fetching method is varying from center to centers.
+3. Learning wordpress and is going.</t>
+  </si>
+  <si>
+    <t>GSS website</t>
+  </si>
+  <si>
+    <t>Learning and Supporting GSS website editing  in wordpress</t>
+  </si>
+  <si>
+    <t>Correction received for taks DRS-Weekly for all SSC and POC tasks for uploading issue at SSC10 and both corrections were rectified.
+ Supporting to GSS website page editing.</t>
+  </si>
+  <si>
+    <t>1.The Othersales extended warranty  tasks has been completed and tested for SSCs to fetch data and converting csv and 
+uploading success
+2. RPA customization of Saw discounts is work in Progress.</t>
+  </si>
+  <si>
+    <t>1. Saw Discount task has been completed and tested for all SSCs to get a download, csvconversion and upload are success.</t>
+  </si>
+  <si>
+    <t>2. Correction has been received for the OtherSales task and work in progress.</t>
+  </si>
+  <si>
+    <t>1. StockOverView task has been completed and tested for three SSCs to know about downloading, csv file conversion, and uploading are success, remaining SSCs to be tested.</t>
+  </si>
+  <si>
+    <t>1. StockOverView task has tested for all SSCs to download, CSV file conversion and uploading are success.</t>
+  </si>
+  <si>
+    <t>Return Credit Monthly task has been completed and tested in all SSCs to get downloading, CSV file conversion, uploading and 
+file moving to backup folder and are functioning perfectly.</t>
+  </si>
+  <si>
+    <t>Storing changed password into Database is in WIP</t>
+  </si>
+  <si>
+    <t>1. Corrections of GRS_Details tasks has been done
+2. Analysing the Google forms</t>
+  </si>
+  <si>
+    <t>3. Working in Progress of Communication board</t>
+  </si>
+  <si>
+    <t>1. Corrections of GRS_Details tasks has been done
+2. Analysing the Google forms and sending email on submission done.</t>
+  </si>
+  <si>
+    <t>1. Analysing the google excel sheet, and sending bulk emails at time is done.(50 emails)
+2.Correction at GRS_Details of SSC3 has been done.</t>
+  </si>
+  <si>
+    <t>1.Correction at GRS_Details of SSC3 was Work in Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,22 +302,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,27 +379,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -276,47 +400,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -426,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -620,32 +726,527 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G71" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G84" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,18 +1265,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -684,49 +1287,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -735,26 +1338,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -777,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -786,7 +1390,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -795,49 +1399,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -846,26 +1450,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -888,30 +1493,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -920,319 +1511,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>44014</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44014</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1">
-        <v>80</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1242,25 +1563,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1292,7 +1614,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1301,49 +1623,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1353,25 +1675,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1394,68 +1717,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="22">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
-        <v>44013</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1465,25 +1799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1515,7 +1850,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1524,49 +1859,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1576,25 +1911,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1617,94 +1953,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
-        <v>44013</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26">
-        <v>44014</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3">
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
-        <v>10</v>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1714,25 +2023,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1764,7 +2074,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1773,49 +2083,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1825,25 +2135,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1875,7 +2186,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1884,49 +2195,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200702.xlsx
+++ b/REVER_DailyTracker_20200702.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F375B-D467-4512-8C1A-AFBF4A124BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E88B19-5F5F-40A0-A53B-33F422C5C35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Email Merge from Google spread sheet</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>PR Sumary error correction</t>
   </si>
 </sst>
 </file>
@@ -623,15 +629,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -655,7 +661,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -732,15 +738,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -843,15 +849,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -964,19 +970,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1021,7 +1027,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1091,15 +1097,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1198,19 +1204,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1239,9 +1245,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1313,15 +1325,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1347,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1425,15 +1437,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1536,15 +1548,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1674,15 +1686,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1785,15 +1797,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
